--- a/references/reference for uploading.xlsx
+++ b/references/reference for uploading.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPRIII\SYSTEMS\VS2022\WEB\MVC\R12VIS\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPRIII\SYSTEMS\VS2022\WEB\MVC\R12VIS\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="3" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Validations reference" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="165">
   <si>
     <t>categoty</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">First Name </t>
-  </si>
-  <si>
     <t>Middle Name</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>Deferral ID</t>
   </si>
   <si>
-    <t>Religion</t>
-  </si>
-  <si>
     <t>Barangay ID (Auto Save if null)</t>
   </si>
   <si>
@@ -512,6 +506,24 @@
   </si>
   <si>
     <t>change error separators from * to ,</t>
+  </si>
+  <si>
+    <t>second Additional Booster Dose</t>
+  </si>
+  <si>
+    <t>Second Additional Booster Dose</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>if deferral is yes</t>
+  </si>
+  <si>
+    <t>if adverse event is yes</t>
+  </si>
+  <si>
+    <t>PWD - TO REMOVE</t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -641,6 +653,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1219,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I58"/>
+  <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1240,24 +1253,24 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1265,28 +1278,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1294,677 +1307,720 @@
         <v>122</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="13"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
+      <c r="A6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
+        <v>130</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
+      <c r="D12" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" t="s">
-        <v>145</v>
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
       </c>
       <c r="D20" t="s">
         <v>132</v>
       </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" t="s">
-        <v>145</v>
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
         <v>45112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>153</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2000,19 +2056,19 @@
       <c r="C1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>78</v>
@@ -2032,7 +2088,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -2055,7 +2111,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
@@ -2076,7 +2132,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
@@ -2099,7 +2155,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
@@ -2122,7 +2178,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -2145,7 +2201,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="9">
         <v>6</v>
@@ -2168,7 +2224,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="9">
         <v>7</v>
@@ -2191,7 +2247,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="9">
         <v>8</v>
@@ -2214,7 +2270,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="9">
         <v>9</v>
@@ -2237,7 +2293,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="9">
         <v>10</v>
@@ -2260,7 +2316,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="9">
         <v>11</v>
@@ -2283,7 +2339,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="9">
         <v>12</v>
@@ -2306,7 +2362,7 @@
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="9">
         <v>13</v>
@@ -2329,7 +2385,7 @@
     </row>
     <row r="16" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="9">
         <v>14</v>
@@ -2352,7 +2408,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="9">
         <v>15</v>
@@ -2375,7 +2431,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="9">
         <v>16</v>
@@ -2398,7 +2454,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="9">
         <v>17</v>
@@ -2467,7 +2523,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="9">
         <v>20</v>
@@ -2488,7 +2544,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="9">
         <v>21</v>
@@ -2511,7 +2567,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="9">
         <v>22</v>
@@ -2532,7 +2588,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="9">
         <v>23</v>
@@ -2553,7 +2609,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="9">
         <v>24</v>
@@ -2574,7 +2630,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="9">
         <v>25</v>
